--- a/Significance.xlsx
+++ b/Significance.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="Кристина"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina\Desktop\climate_response\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00092B2-4404-4662-A8D6-3558E9FE4620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23256" windowHeight="12456" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1662030698" val="1206" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
@@ -40,88 +45,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1662030698" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="240" lang="default"/>
-            <pm:cs face="Times New Roman" sz="240" lang="default"/>
-            <pm:ea face="SimSun" sz="240" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1662030698" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1662030698" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFDD0806"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FFDD0806"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1662030698" fgClr="DD0806" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,65 +90,32 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCF305"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1662030698" type="1" fgLvl="100" fgClr="00FCF305" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1662030698"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FFFF0000"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thick">
         <color rgb="FFFF0000"/>
       </top>
       <bottom style="thick">
         <color rgb="FFFF0000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1662030698">
-            <pm:line position="top" type="1" style="0" width="50" dist="20" width2="20" rgb="FF0000"/>
-            <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="FF0000"/>
-            <pm:line position="left" type="1" style="0" width="50" dist="20" width2="20" rgb="FF0000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -202,39 +130,18 @@
       <bottom style="thick">
         <color rgb="FFFF9900"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1662030698">
-            <pm:line position="top" type="1" style="0" width="50" dist="20" width2="20" rgb="FF9900"/>
-            <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="FF9900"/>
-            <pm:line position="left" type="1" style="0" width="50" dist="20" width2="20" rgb="FF9900"/>
-            <pm:line position="right" type="1" style="0" width="50" dist="20" width2="20" rgb="FF9900"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1662030698"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -242,17 +149,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1662030698" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
@@ -522,16 +436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.000000" defaultRowHeight="16.60"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,152 +457,135 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>TINV(B2*2,C2-2)</f>
-        <v>2.40489169955254001</v>
-      </c>
-      <c r="B2" s="4" t="n">
+        <v>2.3987898361414404</v>
+      </c>
+      <c r="B2" s="4">
         <v>0.01</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>51</v>
+      <c r="C2" s="5">
+        <v>55</v>
       </c>
       <c r="D2" s="3">
         <f>TDIST(A3,C2-2,1)</f>
-        <v>0.00887587791464200038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8.9515644082022259E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>B4*SQRT((C2)/(1-B4*B4))</f>
-        <v>2.45348027867875018</v>
+        <v>2.4436309100013802</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <f>A2/SQRT((C2-2)+A2*A2)</f>
-        <v>0.324915642141073979</v>
+        <v>0.3129484237531695</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>0.1</v>
       </c>
       <c r="C6" s="7">
-        <f>ABS(NORMSINV(B6/2))</f>
-        <v>1.64485350251197993</v>
+        <f t="shared" ref="C6:C11" si="0">ABS(NORMSINV(B6/2))</f>
+        <v>1.6448536269514726</v>
       </c>
       <c r="D6" s="3">
-        <f>TINV(B6,250)</f>
-        <v>1.65097132325171998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <f t="shared" ref="D6:D11" si="1">TINV(B6,250)</f>
+        <v>1.6509714898128527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>0.05</v>
       </c>
       <c r="C7" s="7">
-        <f>ABS(NORMSINV(B7/2))</f>
-        <v>1.95996388792991993</v>
+        <f t="shared" si="0"/>
+        <v>1.9599639845400538</v>
       </c>
       <c r="D7" s="3">
-        <f>TINV(B7,250)</f>
-        <v>1.96949824690819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>1.9694983934211476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>0.01</v>
       </c>
       <c r="C8" s="7">
-        <f>ABS(NORMSINV(B8/2))</f>
-        <v>2.57582917809485989</v>
+        <f t="shared" si="0"/>
+        <v>2.5758293035488999</v>
       </c>
       <c r="D8" s="3">
-        <f>TINV(B8,250)</f>
-        <v>2.5956375896930699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>2.5956376304661806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="n">
-        <v>0.001</v>
+      <c r="B9" s="2">
+        <v>1E-3</v>
       </c>
       <c r="C9" s="7">
-        <f>ABS(NORMSINV(B9/2))</f>
-        <v>3.29052671790122986</v>
+        <f t="shared" si="0"/>
+        <v>3.2905267314918945</v>
       </c>
       <c r="D9" s="3">
-        <f>TINV(B9,250)</f>
-        <v>3.32986727356911016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>3.3298672056731164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="n">
-        <v>0.0001</v>
+      <c r="B10" s="2">
+        <v>1E-4</v>
       </c>
       <c r="C10" s="7">
-        <f>ABS(NORMSINV(B10/2))</f>
-        <v>3.89059200882912002</v>
+        <f t="shared" si="0"/>
+        <v>3.8905918864130942</v>
       </c>
       <c r="D10" s="3">
-        <f>TINV(B10,250)</f>
-        <v>3.95428493618965007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>3.954284855453035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="n">
-        <v>0.00001</v>
+      <c r="B11" s="2">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C11" s="7">
-        <f>ABS(NORMSINV(B11/2))</f>
-        <v>4.41717341542243958</v>
+        <f t="shared" si="0"/>
+        <v>4.4171734134690217</v>
       </c>
       <c r="D11" s="3">
-        <f>TINV(B11,250)</f>
-        <v>4.50943157076835988</v>
+        <f t="shared" si="1"/>
+        <v>4.5094314675194411</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1662030698" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.750000" right="0.750000" top="1.000000" bottom="1.000000" header="0.500000" footer="0.500000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1662030698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1662030698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1662030698" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1662030698" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1662030698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
